--- a/Data/Flows/floVehicleInsurance.xlsx
+++ b/Data/Flows/floVehicleInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F734BEA-2AF3-45F9-87C5-048B1FC2F2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4331C94-71B1-4B7E-ADD8-A482694A0458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2580" windowWidth="35280" windowHeight="13512" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="2508" yWindow="444" windowWidth="35280" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Record/Process</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Open Automobile Insurance</t>
+  </si>
+  <si>
+    <t>103_TruckInsuranceAutomobile_001_SmokeTest</t>
+  </si>
+  <si>
+    <t>var103_TruckInsuranceAutomobile_001_SmokeTest</t>
+  </si>
+  <si>
+    <t>Open Truck Insurance</t>
   </si>
 </sst>
 </file>
@@ -412,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,9 +432,9 @@
     <col min="1" max="1" width="50.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.44140625" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -477,6 +486,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Flows/floVehicleInsurance.xlsx
+++ b/Data/Flows/floVehicleInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4331C94-71B1-4B7E-ADD8-A482694A0458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98FF90B-1BCC-467D-897B-C7C16FF4594B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="444" windowWidth="35280" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="984" yWindow="432" windowWidth="30372" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -63,13 +63,13 @@
     <t>Open Automobile Insurance</t>
   </si>
   <si>
-    <t>103_TruckInsuranceAutomobile_001_SmokeTest</t>
-  </si>
-  <si>
-    <t>var103_TruckInsuranceAutomobile_001_SmokeTest</t>
-  </si>
-  <si>
     <t>Open Truck Insurance</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_001_SmokeTest</t>
+  </si>
+  <si>
+    <t>var103_TruckInsurance_001_SmokeTest</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,16 +488,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Flows/floVehicleInsurance.xlsx
+++ b/Data/Flows/floVehicleInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98FF90B-1BCC-467D-897B-C7C16FF4594B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33B83B7-6F54-43E3-BCA2-6A0C8B67543E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="984" yWindow="432" windowWidth="30372" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="33276" windowHeight="14664" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Record/Process</t>
   </si>
@@ -42,12 +42,6 @@
     <t>proVehicleInsuranceMain</t>
   </si>
   <si>
-    <t>102_VehicleInsuranceAutomobile_001_SmokeTest</t>
-  </si>
-  <si>
-    <t>var102_VehicleInsuranceAutomobile_001_SmokeTest</t>
-  </si>
-  <si>
     <t>proAutomobileInsurance</t>
   </si>
   <si>
@@ -70,6 +64,30 @@
   </si>
   <si>
     <t>var103_TruckInsurance_001_SmokeTest</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_001_SmokeTest</t>
+  </si>
+  <si>
+    <t>var102_AutomobileInsurance_001_SmokeTest</t>
+  </si>
+  <si>
+    <t>104_MotorcycleInsurance_001_SmokeTest</t>
+  </si>
+  <si>
+    <t>var104_MotorcycleInsurance_001_SmokeTest</t>
+  </si>
+  <si>
+    <t>Open Motorcycle Insurance</t>
+  </si>
+  <si>
+    <t>105_CamperInsurance_001_SmokeTest</t>
+  </si>
+  <si>
+    <t>var105_CamperInsurance_001_SmokeTest</t>
+  </si>
+  <si>
+    <t>Open Camper Insurance</t>
   </si>
 </sst>
 </file>
@@ -421,21 +439,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" customWidth="1"/>
-    <col min="4" max="4" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -449,16 +467,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -474,30 +492,58 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Flows/floVehicleInsurance.xlsx
+++ b/Data/Flows/floVehicleInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33B83B7-6F54-43E3-BCA2-6A0C8B67543E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB2F921-D8F2-4A1C-981A-EFB5D1DBB6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="33276" windowHeight="14664" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="3852" yWindow="3444" windowWidth="29964" windowHeight="9180" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Record/Process</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Open Camper Insurance</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_002_VehicleData_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>var102_AutomobileInsurance_002_VehicleData_001_MandatoryFields</t>
   </si>
 </sst>
 </file>
@@ -439,18 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.88671875" customWidth="1"/>
+    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.21875" customWidth="1"/>
@@ -546,6 +552,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Flows/floVehicleInsurance.xlsx
+++ b/Data/Flows/floVehicleInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB2F921-D8F2-4A1C-981A-EFB5D1DBB6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30E4621-2584-4911-9D46-8A3F247175C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3852" yWindow="3444" windowWidth="29964" windowHeight="9180" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="1932" yWindow="648" windowWidth="32112" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Record/Process</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>var102_AutomobileInsurance_002_VehicleData_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_003_InsurantData_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>var102_AutomobileInsurance_003_InsurantData_001_MandatoryFields</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,6 +572,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Flows/floVehicleInsurance.xlsx
+++ b/Data/Flows/floVehicleInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30E4621-2584-4911-9D46-8A3F247175C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF88153-6EC3-4438-B11F-34F9369945D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1932" yWindow="648" windowWidth="32112" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="1932" yWindow="648" windowWidth="37164" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Record/Process</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>var102_AutomobileInsurance_003_InsurantData_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_002_VehicleData_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>var102_AutomobileInsurance_002_VehicleData_002_FieldHintsAndErrors</t>
   </si>
 </sst>
 </file>
@@ -451,18 +457,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.21875" customWidth="1"/>
+    <col min="2" max="2" width="61.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.21875" customWidth="1"/>
@@ -518,72 +524,86 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Flows/floVehicleInsurance.xlsx
+++ b/Data/Flows/floVehicleInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF88153-6EC3-4438-B11F-34F9369945D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F78631-2E86-4B56-9B9D-088CDFCD3BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1932" yWindow="648" windowWidth="37164" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="456" yWindow="960" windowWidth="37164" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Record/Process</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>var102_AutomobileInsurance_002_VehicleData_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_003_InsurantData_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>var102_AutomobileInsurance_003_InsurantData_002_FieldHintsAndErrors</t>
   </si>
 </sst>
 </file>
@@ -457,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,43 +572,57 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Data/Flows/floVehicleInsurance.xlsx
+++ b/Data/Flows/floVehicleInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F78631-2E86-4B56-9B9D-088CDFCD3BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C5CDED-049A-4024-AE6A-A2C9AF68E960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="456" yWindow="960" windowWidth="37164" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="6444" yWindow="1008" windowWidth="29256" windowHeight="14352" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Record/Process</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>var102_AutomobileInsurance_003_InsurantData_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_004_ProductData_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_004_ProductData_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>var102_AutomobileInsurance_004_ProductData_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>var102_AutomobileInsurance_004_ProductData_002_FieldHintsAndErrors</t>
   </si>
 </sst>
 </file>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,43 +598,71 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G12" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Data/Flows/floVehicleInsurance.xlsx
+++ b/Data/Flows/floVehicleInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C5CDED-049A-4024-AE6A-A2C9AF68E960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA9D5FA-4247-4CCD-BEB1-7070B8C426AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6444" yWindow="1008" windowWidth="29256" windowHeight="14352" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="2172" yWindow="888" windowWidth="34512" windowHeight="14352" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Record/Process</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>var102_AutomobileInsurance_004_ProductData_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_005_PriceOption_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_005_PriceOption_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>var102_AutomobileInsurance_005_PriceOption_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>var102_AutomobileInsurance_005_PriceOption_002_FieldHintsAndErrors</t>
   </si>
 </sst>
 </file>
@@ -475,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,43 +638,71 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G14" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Data/Flows/floVehicleInsurance.xlsx
+++ b/Data/Flows/floVehicleInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA9D5FA-4247-4CCD-BEB1-7070B8C426AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC72D3A3-A9C2-46A6-AB2F-C3329E72D3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2172" yWindow="888" windowWidth="34512" windowHeight="14352" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="3456" yWindow="1608" windowWidth="36948" windowHeight="15672" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Record/Process</t>
   </si>
@@ -136,6 +136,30 @@
   </si>
   <si>
     <t>var102_AutomobileInsurance_005_PriceOption_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>var103_TruckInsurance_002_VehicleData_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>var103_TruckInsurance_002_VehicleData_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_006_SendQuote_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_006_SendQuote_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>var102_AutomobileInsurance_006_SendQuote_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>var102_AutomobileInsurance_006_SendQuote_002_FieldHintsAndErrors</t>
   </si>
 </sst>
 </file>
@@ -487,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,7 +523,7 @@
     <col min="2" max="2" width="61.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.21875" customWidth="1"/>
   </cols>
@@ -666,43 +690,99 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G18" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Data/Flows/floVehicleInsurance.xlsx
+++ b/Data/Flows/floVehicleInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC72D3A3-A9C2-46A6-AB2F-C3329E72D3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9735674B-0D75-4930-A4D8-F0C70D33C0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="1608" windowWidth="36948" windowHeight="15672" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="732" yWindow="1680" windowWidth="39612" windowHeight="13668" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>Record/Process</t>
   </si>
@@ -160,6 +160,24 @@
   </si>
   <si>
     <t>var102_AutomobileInsurance_006_SendQuote_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_003_InsurantData_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_003_InsurantData_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>var103_TruckInsurance_003_InsurantData_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>var103_TruckInsurance_003_InsurantData_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_003_InsurantData_003_ListContents</t>
+  </si>
+  <si>
+    <t>var103_TruckInsurance_003_InsurantData_003_ListContents</t>
   </si>
 </sst>
 </file>
@@ -511,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,29 +778,71 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G21" t="s">
         <v>18</v>
       </c>
     </row>
